--- a/Resultados_dur_mgn.xlsx
+++ b/Resultados_dur_mgn.xlsx
@@ -13,7 +13,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Fun_Nic.</t>
+  </si>
+  <si>
+    <t>Fun_EE.UU.</t>
+  </si>
   <si>
     <t>Fun_Nic.</t>
   </si>
@@ -73,10 +79,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2">
